--- a/SampleBulkLoad.xlsx
+++ b/SampleBulkLoad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\sea_days\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91B5ED2-B42D-46A3-B072-6FE7F879211A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1BD158-1FBC-415F-B3A6-F6D6F162145E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{29A9A4EA-5206-491F-8A67-949903E63CD5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{29A9A4EA-5206-491F-8A67-949903E63CD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="Leave" sheetId="5" r:id="rId5"/>
     <sheet name="Activities" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">User!$E$1:$E$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
   <si>
     <t>Frist Name</t>
   </si>
@@ -68,12 +71,6 @@
     <t>robbebe@test123.com</t>
   </si>
   <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>Identifier</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -107,24 +104,9 @@
     <t>Details</t>
   </si>
   <si>
-    <t>Added Date</t>
-  </si>
-  <si>
-    <t>Last Changed Date</t>
-  </si>
-  <si>
     <t>Mate</t>
   </si>
   <si>
-    <t>Last Changed Date does not need to be specified. If it is not specified it will default to the day the data is loaded.</t>
-  </si>
-  <si>
-    <t>Added Date does not need to be specified. If it is not specified it will default to the day the data is loaded.</t>
-  </si>
-  <si>
-    <t>Identifiers do not need to be specified. They are only used for backups and restores.</t>
-  </si>
-  <si>
     <t>This spreadsheet can be used to bulk load data into the Sea Days app.</t>
   </si>
   <si>
@@ -191,16 +173,52 @@
     <t>Any Vessel specified on the Jobs or Activities sheets must be specified on the Vessels sheet or already exist in the app.</t>
   </si>
   <si>
-    <t>Vessel names must be unique. If there are two vessels with the same name make the names unique to load the data and then change the name in the app once the data is loaded.</t>
-  </si>
-  <si>
     <t>If there is an existing vessel with the same name in the app the data in the app will be updated with what is in this spread sheet.</t>
   </si>
   <si>
-    <t>Vessel Identifier</t>
-  </si>
-  <si>
     <t>Vessel Name</t>
+  </si>
+  <si>
+    <t>Only one user should be specified.</t>
+  </si>
+  <si>
+    <t>Leave dates must not overlap on the spreadsheet or with exisitng leave already in the app.</t>
+  </si>
+  <si>
+    <t>Activity dates must not overlap on the spreadsheet or with exisitng activities already in the app.</t>
+  </si>
+  <si>
+    <t>Only the latest job, on the spreadsheet or in the app,  can have a blank end date.</t>
+  </si>
+  <si>
+    <t>Only the latest leave, on the spreadsheet or in the app, can have a blank end date.</t>
+  </si>
+  <si>
+    <t>Only the latest activity, on the spreadsheet or in the app, can have a blank end date.</t>
+  </si>
+  <si>
+    <t>Any row not meeting the above conditions will not be loaded.</t>
+  </si>
+  <si>
+    <t>Column heading in red are mandatory fields that must be specified.</t>
+  </si>
+  <si>
+    <t>Vessel names must be unique. If you have worked on two vessels with the same name make the names unique to load the data and then change the name in the app once the data is loaded. The same unique name must also be used in the jobs and activities tabs.</t>
+  </si>
+  <si>
+    <t>If you do not know the vessel IMO any number will do.</t>
+  </si>
+  <si>
+    <t>The only leave types that can be used are those in the drop-down list - Leave, Sick or Training.</t>
+  </si>
+  <si>
+    <t>The only activity types that can be used are those in the drop-down list - Anchot, At Sea, On Dock, Standby, Yard.</t>
+  </si>
+  <si>
+    <t>All dates must be valid Gregorian dates.</t>
+  </si>
+  <si>
+    <t>Current Vessel</t>
   </si>
 </sst>
 </file>
@@ -268,13 +286,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -590,69 +611,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BC6E90-0248-493C-830C-CC68244B4B33}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="115.5546875" style="6" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>27</v>
+      <c r="B5" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
+      <c r="B7" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
-        <v>49</v>
+      <c r="B8" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>50</v>
+      <c r="B9" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>51</v>
       </c>
     </row>
@@ -663,10 +756,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96DD9E5A-1C72-4537-BB74-3E14BF58D1BA}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -675,12 +768,10 @@
     <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -696,14 +787,8 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -717,13 +802,13 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{814D6BD8-D8F6-475D-9029-C54F55E2ADB0}">
-      <formula1>"All, Current Job, Current Yacht, Year To Date"</formula1>
+      <formula1>"All, Current Job, Current Vessel, Year To Date"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -736,63 +821,44 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DAB5267-AB96-4644-8835-C95E3F3F77B5}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="B2">
+        <v>1009833</v>
+      </c>
+      <c r="C2">
+        <v>78.400000000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2">
-        <v>1009833</v>
-      </c>
-      <c r="D2">
-        <v>78.400000000000006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
+      <c r="B3">
+        <v>1012385</v>
       </c>
       <c r="C3">
-        <v>1012385</v>
-      </c>
-      <c r="D3">
         <v>55</v>
       </c>
     </row>
@@ -803,83 +869,62 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2AA00E9-6A21-42FC-9944-1C39871F8337}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>52</v>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="B2" s="3">
+        <v>43282</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43799</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3">
         <v>43831</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="3">
-        <v>43282</v>
-      </c>
-      <c r="E3" s="3">
-        <v>43799</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
+      <c r="C3" s="3"/>
+      <c r="D3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -889,176 +934,164 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851374EB-D632-46B9-8F73-6E2F30158BCC}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43358</v>
+      </c>
+      <c r="D2" s="3">
+        <v>43376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43377</v>
+      </c>
+      <c r="D3" s="3">
+        <v>43382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43456</v>
+      </c>
+      <c r="D4" s="3">
+        <v>43463</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43590</v>
+      </c>
+      <c r="D5" s="3">
+        <v>43594</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43759</v>
+      </c>
+      <c r="D6" s="3">
+        <v>43774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="3">
-        <v>43358</v>
-      </c>
-      <c r="E2" s="3">
-        <v>43376</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3">
+        <v>43862</v>
+      </c>
+      <c r="D7" s="3">
+        <v>43866</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>34</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3">
+        <v>43888</v>
+      </c>
+      <c r="D8" s="3">
+        <v>43892</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="3">
-        <v>43377</v>
-      </c>
-      <c r="E3" s="3">
-        <v>43382</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3">
+        <v>43983</v>
+      </c>
+      <c r="D9" s="3">
+        <v>44099</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>36</v>
       </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="3">
-        <v>43456</v>
-      </c>
-      <c r="E4" s="3">
-        <v>43463</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="3">
-        <v>43590</v>
-      </c>
-      <c r="E5" s="3">
-        <v>43594</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="3">
-        <v>43759</v>
-      </c>
-      <c r="E6" s="3">
-        <v>43774</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="3">
-        <v>43862</v>
-      </c>
-      <c r="E7" s="3">
-        <v>43866</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="3">
-        <v>43888</v>
-      </c>
-      <c r="E8" s="3">
-        <v>43892</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="3">
-        <v>43983</v>
-      </c>
-      <c r="E9" s="3">
-        <v>44099</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
+        <v>28</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44105</v>
       </c>
       <c r="D10" s="3">
-        <v>44105</v>
-      </c>
-      <c r="E10" s="3">
         <v>44108</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{25D61192-DF06-4D83-96EF-FC36EAFF8CE9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{25D61192-DF06-4D83-96EF-FC36EAFF8CE9}">
       <formula1>"Leave, Sick, Training"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1068,147 +1101,117 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D375A0-F6FB-4CFC-9332-BF06DE2274B0}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="D2" s="3">
         <v>43282</v>
       </c>
-      <c r="G2" s="3">
+      <c r="E2" s="3">
         <v>43291</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="3">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3">
         <v>43292</v>
       </c>
-      <c r="G3" s="3">
+      <c r="E3" s="3">
         <v>43317</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
       <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="3">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3">
         <v>43318</v>
       </c>
-      <c r="G4" s="3">
+      <c r="E4" s="3">
         <v>43382</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
       <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="3">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3">
         <v>43383</v>
       </c>
-      <c r="G5" s="3">
+      <c r="E5" s="3">
         <v>43398</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
       <c r="C6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="3">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3">
         <v>43399</v>
       </c>
-      <c r="G6" s="3">
+      <c r="E6" s="3">
         <v>43408</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{6B3DEDB2-2108-44EE-B0E6-F35EE9D89C7F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{6B3DEDB2-2108-44EE-B0E6-F35EE9D89C7F}">
       <formula1>"Anchor, At Sea, On Dock, Standby, Yard"</formula1>
     </dataValidation>
   </dataValidations>
